--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2019-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\EGCC\PLSQL-2019-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>NRO</t>
   </si>
@@ -606,19 +606,19 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
@@ -664,13 +664,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -701,10 +701,12 @@
         <v>6</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -715,10 +717,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -730,7 +734,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -741,10 +745,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -755,10 +761,12 @@
         <v>6</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -769,10 +777,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -783,10 +793,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -797,10 +809,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -811,10 +825,12 @@
         <v>6</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -828,7 +844,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -839,10 +855,12 @@
         <v>6</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -852,7 +870,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -882,12 +900,12 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -895,7 +913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -903,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -911,7 +929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -919,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -927,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -935,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -943,7 +961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -951,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>NRO</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,11 +700,15 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -716,11 +720,15 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -760,7 +768,9 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
@@ -776,11 +786,15 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -792,7 +806,9 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
@@ -808,11 +824,15 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -824,11 +844,15 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -854,11 +878,15 @@
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
